--- a/xlsx/大洋洲_intext.xlsx
+++ b/xlsx/大洋洲_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="554">
   <si>
     <t>大洋洲</t>
   </si>
@@ -29,19 +29,19 @@
     <t>澳洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_大洋洲</t>
+    <t>政策_政策_美国_大洋洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大拉西亞</t>
+    <t>澳大拉西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
+    <t>密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -161,31 +161,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>珊瑚海群島</t>
+    <t>珊瑚海群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬里亞納群島</t>
+    <t>马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>諾福克島</t>
+    <t>诺福克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
@@ -209,85 +209,82 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>托克勞群島</t>
+    <t>托克劳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%B1%E6%81%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>皮特凱恩群島</t>
+    <t>皮特凯恩群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>復活島</t>
+    <t>复活岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%8E%AB%E7%BE%85%E8%AA%9E</t>
   </si>
   <si>
-    <t>查莫羅語</t>
+    <t>查莫罗语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>斐濟語</t>
+    <t>斐济语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%87%8C%E5%B7%B4%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>吉里巴斯語</t>
+    <t>吉里巴斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>印地語</t>
+    <t>印地语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞語</t>
+    <t>印度尼西亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>毛里語</t>
+    <t>毛里语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E8%AF%AD</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>諾魯語</t>
+    <t>诺鲁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83%E8%AF%AD</t>
@@ -311,13 +308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8B%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>帕勞語</t>
+    <t>帕劳语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>薩摩亞語</t>
+    <t>萨摩亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B8%8C%E6%8F%90%E8%AF%AD</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E8%AA%9E</t>
   </si>
   <si>
-    <t>東加語</t>
+    <t>东加语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E7%9A%AE%E9%92%A6%E8%AF%AD</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC</t>
   </si>
   <si>
-    <t>墨爾本</t>
+    <t>墨尔本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%93%A6</t>
   </si>
   <si>
-    <t>蘇瓦</t>
+    <t>苏瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%8A%E7%90%83</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%B2%9D%E7%88%BE%C2%B7%E5%A1%94%E6%96%AF%E6%9B%BC</t>
   </si>
   <si>
-    <t>阿貝爾·塔斯曼</t>
+    <t>阿贝尔·塔斯曼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Willem_de_Vlamingh</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%BA%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>詹姆斯·庫克</t>
+    <t>詹姆斯·库克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E8%B4%9D%E6%96%AF</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BF%AE%C2%B7%E7%A6%8F%E6%9E%97%E9%81%94%E6%96%AF</t>
   </si>
   <si>
-    <t>馬修·福林達斯</t>
+    <t>马修·福林达斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2%E5%8E%86%E5%8F%B2</t>
@@ -479,9 +476,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
   </si>
   <si>
@@ -497,9 +491,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
   </si>
   <si>
-    <t>新西兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
   </si>
   <si>
@@ -509,15 +500,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
@@ -539,13 +524,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>新幾內亞</t>
+    <t>新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>西巴布亞省</t>
+    <t>西巴布亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E7%9C%81</t>
@@ -569,37 +554,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>澳大拉西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>密克羅尼西亞</t>
+    <t>密克罗尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>美拉尼西亞</t>
+    <t>美拉尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -611,49 +593,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
   </si>
   <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>美属萨摩亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E8%96%A9%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬克薩斯群島</t>
+    <t>马克萨斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>社會群島</t>
+    <t>社会群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E9%98%BF%E8%8E%AB%E5%9C%9F%E7%BE%A4%E5%B2%9B</t>
@@ -665,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>甘比爾群島</t>
+    <t>甘比尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E7%BE%A4%E5%B2%9B</t>
@@ -677,13 +647,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>皮特凯恩群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -695,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E5%B3%B6</t>
   </si>
   <si>
-    <t>復活節島</t>
+    <t>复活节岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -713,13 +680,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E4%BA%9E%E8%92%82%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>洛亞蒂群島</t>
+    <t>洛亚蒂群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A1%94%E5%A7%86%E7%BE%A4%E5%B2%9B</t>
@@ -731,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E8%B2%BB%E7%88%BE%E5%8D%97%E5%BE%B7%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>胡安·費爾南德斯群島</t>
+    <t>胡安·费尔南德斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -743,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>太平洋運動會</t>
+    <t>太平洋运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
@@ -761,13 +728,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>橄欖球類運動</t>
+    <t>橄榄球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E7%90%83</t>
@@ -779,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>聯盟式橄欖球</t>
+    <t>联盟式橄榄球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2%E6%97%97%E5%B8%9C%E5%88%97%E8%A1%A8</t>
@@ -833,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E9%9D%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞非大陸</t>
+    <t>欧亚非大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -845,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞大陸</t>
+    <t>欧亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
@@ -857,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>超大陸</t>
+    <t>超大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
@@ -875,109 +839,109 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>盤古大陸</t>
+    <t>盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>潘諾西亞大陸</t>
+    <t>潘诺西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>羅迪尼亞大陸</t>
+    <t>罗迪尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大陸</t>
+    <t>哥伦比亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>凱諾蘭大陸</t>
+    <t>凯诺兰大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>妮娜大陸</t>
+    <t>妮娜大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>烏爾大陸</t>
+    <t>乌尔大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>瓦巴拉大陸</t>
+    <t>瓦巴拉大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>北極大陸</t>
+    <t>北极大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿瓦隆尼亞大陸</t>
+    <t>阿瓦隆尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>波羅的大陸</t>
+    <t>波罗的大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>辛梅利亞大陸</t>
+    <t>辛梅利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>剛果克拉通</t>
+    <t>刚果克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐美大陸</t>
+    <t>欧美大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哈薩克大陸</t>
+    <t>哈萨克大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>勞倫大陸</t>
+    <t>劳伦大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
   </si>
   <si>
-    <t>華北陸塊</t>
+    <t>华北陆块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>西伯利亞大陸</t>
+    <t>西伯利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
@@ -989,13 +953,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>東南極克拉通</t>
+    <t>东南极克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
@@ -1007,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
   </si>
   <si>
-    <t>凱爾蓋朗海台</t>
+    <t>凯尔盖朗海台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
@@ -1019,25 +983,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>終極盤古大陸</t>
+    <t>终极盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿美西亞大陸</t>
+    <t>阿美西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新盤古大陸</t>
+    <t>新盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>雷姆利亞大陸</t>
+    <t>雷姆利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
@@ -1049,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>未知的南方大陸</t>
+    <t>未知的南方大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
@@ -1073,9 +1037,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -1085,61 +1046,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6</t>
   </si>
   <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
   </si>
   <si>
-    <t>諾魯</t>
+    <t>诺鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>美拉尼西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
   </si>
   <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0</t>
   </si>
   <si>
-    <t>東加</t>
+    <t>东加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1157,13 +1097,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1181,25 +1121,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3</t>
   </si>
   <si>
-    <t>托克劳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E9%82%A6</t>
   </si>
   <si>
-    <t>聯繫邦</t>
+    <t>联系邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -1277,13 +1214,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1385,13 +1322,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
@@ -1469,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -1481,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -1535,25 +1472,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
+    <t>赤道多雨气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -1571,13 +1508,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -1589,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -1607,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -1643,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1661,19 +1598,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1697,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -1721,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1739,7 +1676,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3096,7 +3033,7 @@
         <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -3122,10 +3059,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -3151,10 +3088,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3180,10 +3117,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3209,10 +3146,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3238,10 +3175,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3267,10 +3204,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3296,10 +3233,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3325,10 +3262,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3354,10 +3291,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3383,10 +3320,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3412,10 +3349,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3441,10 +3378,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3470,10 +3407,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3499,10 +3436,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3528,10 +3465,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3557,10 +3494,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3586,10 +3523,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3615,10 +3552,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3644,10 +3581,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3673,10 +3610,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3702,10 +3639,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3731,10 +3668,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3760,10 +3697,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3789,10 +3726,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3818,10 +3755,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3847,10 +3784,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3876,10 +3813,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3905,10 +3842,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3934,10 +3871,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>6</v>
@@ -3963,10 +3900,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>9</v>
@@ -3992,10 +3929,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4021,10 +3958,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4050,10 +3987,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4079,10 +4016,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4108,10 +4045,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4137,10 +4074,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4166,10 +4103,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4195,10 +4132,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4224,10 +4161,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4253,10 +4190,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4282,10 +4219,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4311,10 +4248,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4340,10 +4277,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -4369,10 +4306,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -4398,10 +4335,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -4456,10 +4393,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="G82" t="n">
         <v>8</v>
@@ -4485,10 +4422,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4514,10 +4451,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>5</v>
@@ -4543,10 +4480,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4572,10 +4509,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4601,10 +4538,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4630,10 +4567,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4659,10 +4596,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4688,10 +4625,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4717,10 +4654,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4746,10 +4683,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4775,10 +4712,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4833,10 +4770,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -4862,10 +4799,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>8</v>
@@ -4891,10 +4828,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -4920,10 +4857,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>9</v>
@@ -4949,10 +4886,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4978,10 +4915,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5007,10 +4944,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5036,10 +4973,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5065,10 +5002,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -5094,10 +5031,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -5123,10 +5060,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5152,10 +5089,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5181,10 +5118,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5210,10 +5147,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5239,10 +5176,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5268,10 +5205,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5297,10 +5234,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5326,10 +5263,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5355,10 +5292,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5384,10 +5321,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5413,10 +5350,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5442,10 +5379,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -5471,10 +5408,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5500,10 +5437,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5529,10 +5466,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5558,10 +5495,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5587,10 +5524,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5616,10 +5553,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5645,10 +5582,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5674,10 +5611,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5703,10 +5640,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F125" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5732,10 +5669,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -5761,10 +5698,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5790,10 +5727,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5819,10 +5756,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -5848,10 +5785,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5877,10 +5814,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5906,10 +5843,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5935,10 +5872,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5964,10 +5901,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5993,10 +5930,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6022,10 +5959,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6051,10 +5988,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G137" t="n">
         <v>15</v>
@@ -6080,10 +6017,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -6109,10 +6046,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F139" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6138,10 +6075,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6167,10 +6104,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6196,10 +6133,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6225,10 +6162,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6254,10 +6191,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6283,10 +6220,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6312,10 +6249,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6341,10 +6278,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6370,10 +6307,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F148" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G148" t="n">
         <v>15</v>
@@ -6399,10 +6336,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F149" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6428,10 +6365,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F150" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6457,10 +6394,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6486,10 +6423,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6515,10 +6452,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6544,10 +6481,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6573,10 +6510,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6602,10 +6539,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6631,10 +6568,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6660,10 +6597,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6689,10 +6626,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F159" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6718,10 +6655,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F160" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6747,10 +6684,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F161" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6776,10 +6713,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F162" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6805,10 +6742,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6834,10 +6771,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F164" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6863,10 +6800,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F165" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6892,10 +6829,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F166" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6921,10 +6858,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F167" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6950,10 +6887,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F168" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6979,10 +6916,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F169" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7008,10 +6945,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7037,10 +6974,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F171" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7066,10 +7003,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F172" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7095,10 +7032,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="F173" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7124,10 +7061,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F174" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7153,10 +7090,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F175" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7182,10 +7119,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F176" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7211,10 +7148,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F177" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7240,10 +7177,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F178" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7269,10 +7206,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F179" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7298,10 +7235,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7327,10 +7264,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7356,10 +7293,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F182" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7385,10 +7322,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7414,10 +7351,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7443,10 +7380,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F185" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7472,10 +7409,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F186" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7501,10 +7438,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F187" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G187" t="n">
         <v>5</v>
@@ -7530,10 +7467,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F188" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7559,10 +7496,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F189" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -7588,10 +7525,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7617,10 +7554,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F191" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7646,10 +7583,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7675,10 +7612,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>22</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7704,10 +7641,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7733,10 +7670,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7762,10 +7699,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7791,10 +7728,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>28</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7820,10 +7757,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7849,10 +7786,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7878,10 +7815,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -7907,10 +7844,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7936,10 +7873,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7965,10 +7902,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7994,10 +7931,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8023,10 +7960,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8052,10 +7989,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8081,10 +8018,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8110,10 +8047,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8139,10 +8076,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8168,10 +8105,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>195</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8197,10 +8134,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8226,10 +8163,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G212" t="n">
         <v>8</v>
@@ -8255,10 +8192,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8284,10 +8221,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8313,10 +8250,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8342,10 +8279,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -8371,10 +8308,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8400,10 +8337,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8429,10 +8366,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8458,10 +8395,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8487,10 +8424,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8516,10 +8453,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8545,10 +8482,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8574,10 +8511,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8603,10 +8540,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8632,10 +8569,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8661,10 +8598,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8690,10 +8627,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8719,10 +8656,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8748,10 +8685,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F230" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8777,10 +8714,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8806,10 +8743,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8835,10 +8772,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8864,10 +8801,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8893,10 +8830,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8922,10 +8859,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8951,10 +8888,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8980,10 +8917,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9009,10 +8946,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="F239" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9038,10 +8975,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="F240" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9067,10 +9004,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="F241" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9096,10 +9033,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="F242" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9125,10 +9062,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="F243" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9154,10 +9091,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="F244" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9183,10 +9120,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="F245" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9212,10 +9149,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="F246" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9241,10 +9178,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="F247" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9270,10 +9207,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="F248" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9299,10 +9236,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="F249" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9328,10 +9265,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="F250" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9357,10 +9294,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F251" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9386,10 +9323,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="F252" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9415,10 +9352,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="F253" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9444,10 +9381,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9473,10 +9410,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="F255" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9502,10 +9439,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="F256" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -9531,10 +9468,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F257" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9560,10 +9497,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -9589,10 +9526,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9618,10 +9555,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F260" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9647,10 +9584,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="F261" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9676,10 +9613,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="F262" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9705,10 +9642,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="F263" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9734,10 +9671,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="F264" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9763,10 +9700,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="F265" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9792,10 +9729,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="F266" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="G266" t="n">
         <v>34</v>
@@ -9821,10 +9758,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="F267" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9850,10 +9787,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="F268" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -9879,10 +9816,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="F269" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9908,10 +9845,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="F270" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9937,10 +9874,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="F271" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9966,10 +9903,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="F272" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9995,10 +9932,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="F273" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="G273" t="n">
         <v>10</v>
@@ -10024,10 +9961,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="F274" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10053,10 +9990,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="F275" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10082,10 +10019,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="F276" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10111,10 +10048,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="F277" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10140,10 +10077,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="F278" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10169,10 +10106,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10198,10 +10135,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10227,10 +10164,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10256,10 +10193,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="G282" t="n">
         <v>8</v>
@@ -10285,10 +10222,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10314,10 +10251,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10343,10 +10280,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="F285" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10372,10 +10309,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="F286" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10401,10 +10338,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="F287" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10430,10 +10367,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="F288" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10459,10 +10396,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="F289" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10488,10 +10425,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="F290" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10517,10 +10454,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="F291" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10546,10 +10483,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="F292" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10575,10 +10512,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="F293" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10604,10 +10541,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="F294" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10633,10 +10570,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="F295" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10662,10 +10599,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="F296" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10691,10 +10628,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="F297" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10720,10 +10657,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="F298" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10749,10 +10686,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="F299" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10778,10 +10715,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="F300" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10807,10 +10744,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="F301" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10836,10 +10773,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="F302" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10865,10 +10802,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="F303" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -10894,10 +10831,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="F304" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10923,10 +10860,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="F305" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -10952,10 +10889,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="F306" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>

--- a/xlsx/大洋洲_intext.xlsx
+++ b/xlsx/大洋洲_intext.xlsx
@@ -29,7 +29,7 @@
     <t>澳洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_大洋洲</t>
+    <t>体育运动_体育运动_体育_大洋洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
